--- a/finetuning/it_datasets/it_dataset/it_ariana_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_ariana_dataset.xlsx
@@ -658,9 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated hotel, check out The Penthouse located at Rue Medinat Radhoua, Ariana 2203. 
-This hotel is perfect for hotel lovers and offers a range of services and amenities to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.863442697441, 10.158754341088. For more details, visit their website at https://www.thepenthouse.tn/ or call them at 71 811 535.</t>
+          <t>**The Penthouse** is a friendly apart'hotel offering kitchen-equipped accommodations. Located in Ariana (36.863442697441, 10.158754341088), it boasts a skating rink, bowling alley, and seasonal swimming pool. With over 400 reviews and a 4.2-star rating, the hotel offers a luxurious experience with a focus on service, featuring spacious rooms and suites.</t>
         </is>
       </c>
     </row>
@@ -755,9 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Hotel Ennasr located at Hotel Ennasr, 16 Avenue Behi El Adgham Ariana, Governorate 2001. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84281, 10.11195. For more details, visit their website or call them at 55 270 719.</t>
+          <t>The Hotel Ennasr is a luxurious five-star hotel nestled between the residential area of Ariana governorate, the urban center of Tunis, and the gorgeous Gulf of Tunis. The hotel presents a trendy and elegant interior design. Its 192 guest rooms boast a stylish and comfortable ambiance with modern amenities like flat-screen TVs and Wi-Fi. For dining, there is a delightful restaurant on-site that offers a fine selection of local and international cuisine, while the bar invites guests to unwind with a refreshing drink. For business travelers, the hotel features meeting rooms with state-of-the-art equipment. Additional amenities include a fitness center for guests to stay active and a swimming pool to relax and soak up the sun.</t>
         </is>
       </c>
     </row>
@@ -852,10 +848,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a place to stay, check out aychik homestay located at bolc A Appart A4-2, cite latif 1, Ariana 2037. 
-This top-rated destination is perfect for Hostellerie lovers and offers a range of Hostellerie categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8548548, 10.1533474. 
-For more details, call them at 73 449 075.</t>
+          <t>"aychik homestay" is a hostel located in Ariana, Tunisia. It offers private rooms and shared dormitories with free Wi-Fi and a 24-hour reception. It's situated at coordinates (36.8548548, 10.1533474) and can be contacted by phone at 73 449 075.</t>
         </is>
       </c>
     </row>
@@ -962,7 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated hotel, check out The Penthouse located at Rue Medinat Radhoua, Ariana 2203. This convivial destination is perfect for Hotel lovers and offers a range of services including a heated pool, bowling alley, and ice skating rink. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.863442697441, 10.158754341088. For more details, visit their website at https://www.thepenthouse.tn/ or call them at 71 811 535.</t>
+          <t>The Penthouse is a friendly aparthotel located in Ariana, Tunisia, at coordinates (36.863442697441, 10.158754341088), offering comfortable accommodations with kitchens. It boasts various amenities for entertainment, including a skating rink, bowling alley, and a seasonal swimming pool. With 424 reviews and a rating of 4.2, guests appreciate its services, rooms, and luxury experience.</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1050,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated hotel, check out Hotel Ennasr located at 16 Avenue Behi El Adgham Ariana, Governorate 2001. This hotel is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84281, 10.11195. For more details, visit their website or call them at 55 270 719.</t>
+          <t>Hotel Ennasr is a 5-star hotel located in Ariana, Tunisia. It offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. The hotel is conveniently located near several attractions, including the Ariana Mosque and the Medina of Tunis.</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1153,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a delightful dining experience, visit Restaurant les dents de la mer located at V53F+MCH Restaurant les dents de la mer, Ariana. With a rating of 3.5, it's a popular choice among Restaurant lovers. To get there, use these GPS coordinates: 43.6956481, 7.2731809. For more details, visit their website at https://www.facebook.com/Restaurantfeudebois or call them at 51 661 551.</t>
+          <t>Restaurant les dents de la mer is a seafood restaurant located in Ariana, Tunisia. It is rated 3.5 out of 5 stars on Google and has 38 reviews. The restaurant offers a variety of seafood dishes, including fish, shrimp, and calamari. It is also known for its affordable prices. The restaurant is located at V53F+MCH Restaurant les dents de la mer, Ariana, and is open daily from 11:00 am to 11:00 pm.</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1256,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a top-rated Poissonnerie, check out Poissonnerie VICINO AL MARE located at V567+MCQ Poissonnerie VICINO AL MARE, Av. Mohamed Rached El Baji, Ariana. This 5.0-rated spot offers a range of Poissonnerie options to choose from. It's open during these hours: 08:00-20:00, but closed on Monday. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at or call them at 20 808 300.</t>
+          <t>Poissonnerie VICINO AL MARE is a fish market located in Ariana (36.860202, 10.1905046). The shop offers a wide variety of fresh fish and seafood. It is open from 8:00 to 20:00 from Tuesday to Sunday and closed on Monday.</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Restaurant bocca beach located at Restaurant bocca beach, Mariana club Oued Blibene, Sousse, Sousse. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 3.5, it's a must-visit spot. It's open during these hours: 11:00-01:00, To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at http://bocca-beach.com/ or call them at 26 444 888.</t>
+          <t>Restaurant bocca beach is a restaurant located in Sousse, Tunisia, offering a variety of dishes, including pizzas. It is located at 35.8293001 latitude and 10.6406309 longitude, and is open from 11:00 to 01:00 every day of the week.</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1466,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a charming dining experience, visit Restaurant les dents de la mer at V53F+MCH Restaurant les dents de la mer, Ariana. This popular destination is perfect for Restaurant enthusiasts and has a rating of 3.5. To get there, use these GPS coordinates: (43.6956481, 7.2731809). For more details, visit their website at https://www.facebook.com/Restaurantfeudebois or call them at 51 661 551.</t>
+          <t>Restaurant les dents de la mer is a restaurant specializing in seafood located in Ariana (lon : 7.2731809, lat : 43.6956481). It has 38 reviews on google map with an average note of 3.5 / 5. According to the reviews, the prices are affordable and the seafood is of good quality.</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1561,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Roundabout Menzah 6 located at V53C+939 Roundabout Menzah 6, Ariana. This top-rated Fabricant de monuments is perfect for Fabricant de monuments lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8487901, 10.1654024.</t>
+          <t>Roundabout Menzah 6 is a monument located in Ariana with the coordinates of (36.8487901, 10.1654024).</t>
         </is>
       </c>
     </row>
@@ -1671,9 +1664,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great museum to visit, check out jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana located at 2080 Rue Sidi Ammar, Ariana. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:30, but closed on None. To get there, use these GPS coordinates: 36.859846087721, 10.191601451664. For more details, visit their website at None or call them at 22 502 905.</t>
+          <t>jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, located in Ariana, Tunisia, at coordinates (36.859846087721, 10.191601451664), is a highly-rated museum (5.0 stars) open from 9:00-22:30, except for certain closed days. With one review, it offers a unique cultural experience, showcasing the rich history and heritage of the region.</t>
         </is>
       </c>
     </row>
@@ -1776,9 +1767,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana located at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, 2080 Rue Sidi Ammar, Ariana. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:30. To get there, use these GPS coordinates: 36.859846087721, 10.191601451664. For more details, visit their website at https://www.google.com/maps/place/%D8%AC%D9%85%D8%B9%D9%8A%D9%91%D8%A9+%D8%B9%D9%8A%D8%B3%D8%A7%D9%88%D9%8A%D9%91%D8%A9+%D8%A3%D8%B1%D9%8A%D8%A7%D9%86%D8%A9+Association+issaweyet+ariana%E2%80%AD/data=!4m7!3m6!1s0x12e2cb5d947d8233:0xbe4828a9c7ce1563!8m2!3d36.8592614!4d10.1906703!16s%2Fg%2F11h7h_mzlz!19sChIJM4J9lF3L4hIRYxXOx6koSL4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 502 905.</t>
+          <t>This place is the jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana in ariana, Tunisia. Its coordinates are 36.859846087721, 10.191601451664. It has a 5.0 rating and is open from 09:00 to 22:30 every day.</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1870,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana located at jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana, 2080 Rue Sidi Ammar, Ariana. This top-rated destination is perfect for Musee lovers. With a rating of 5.0, it's a must-visit spot and open during these hours: 09:00-22:30. To get there, use these GPS coordinates: 36.859846087721, 10.191601451664. For more details, call them at 22 502 905.</t>
+          <t>jm`yW@ `yswyW@ 'ryn@ Association issaweyet ariana is a museum located in Ariana, with coordinates (36.859846087721, 10.191601451664), offering a captivating cultural experience.</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1965,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in ariana, Sebkha Ariana is a top-rated destination for Lac saisonnier lovers. With a rating of 3.4, it's a must-visit spot. It's located at Sebkha Ariana. To get there, use these GPS coordinates: 36.91716, 10.23727. For more details, visit their website at https://www.google.com/maps/place/Sebkha+Ariana/data=!4m7!3m6!1s0x12e2ca447899882d:0x191cc3c781e0debc!8m2!3d36.9071746!4d10.2487967!16s%2Fg%2F121_5bhr!19sChIJLYiZeETK4hIRvN7ggcfDHBk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sebkha Ariana is a seasonal lake located in Ariana, Tunisia. It offers a unique and beautiful natural setting, perfect for a day of relaxation or exploration. The lake is surrounded by lush vegetation and wildlife, making it a great place to go for a walk, bike ride, or picnic. Sebkha Ariana is also a popular spot for fishing and birdwatching. It is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2056,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for something fun to do, check out Reservoirs Eau Potable. This top-rated destination is perfect for Drinking water lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 32.9941, -7.60194.</t>
+          <t>Reservoirs Eau Potable, located in Ariana, is a place dedicated to providing drinking water to the community. It offers fresh, clean water to the residents of the area, contributing to their health and well-being.</t>
         </is>
       </c>
     </row>
@@ -2158,9 +2147,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Reservoir Eaux Pluviales located at Reservoir Eaux Pluviales, Ariana. 
-This top-rated destination is perfect for Lac saisonnier lovers and offers a range of Lac saisonnier to choose from. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>Reservoir Eaux Pluviales, located in Ariana, is a seasonal lake nestled amidst the urban landscape. This water body serves as a haven for recreation and relaxation, offering visitors a scenic retreat within easy reach of the city center. Its precise coordinates are (36.860202, 10.1905046).</t>
         </is>
       </c>
     </row>
@@ -2255,9 +2242,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out EL BAAZZZ located at R5WF+GXF EL BAAZZZ, Rue Mohamed Ikbal. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:00-05:00. To get there, use these GPS coordinates: 36.846469739053, 10.174997461973.</t>
+          <t>EL BAAZZZ is a discotheque located at (36.846469739053, 10.174997461973) in Ariana. It offers a lively nightlife experience with its unique ambiance and energetic atmosphere. The club features top DJs and live performances, making it a popular destination for party-goers and music enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2341,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great place to relax, check out LE SANCTUAIRE located at Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, Ariana 2058. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on None. To get there, use these GPS coordinates: 36.8663236, 10.183276.</t>
+          <t>LE SANCTUAIRE, is a bar lounge located in Ariana, Tunisia. It's a 24h bar with a 5-star rating and one review. The bar's exact location is on Riadh el andalos, 53, AV abou al, Rue Abou Walid ibn Rochd, in the city of Ariana, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2436,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out EL BAAZZZ located at R5WF+GXF EL BAAZZZ, Rue Mohamed Ikbal, Ariana. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 21:00-05:00, but closed on Monday, Tuesday, Wednesday, Thursday, Friday. To get there, use these GPS coordinates: 36.846469739053, 10.174997461973.</t>
+          <t>EL BAAZZZ discotheque is located in Ariana, Tunisia. It offers a lively atmosphere and has received positive reviews from visitors. The discotheque is open from 9 PM to 5 AM, except for Sunday to Thursday. It is easily accessible by car and coordinates are (36.846469739053, 10.174997461973).</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2531,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated discotheque, check out EL BAAZZZ located at R5WF+GXF EL BAAZZZ, Rue Mohamed Ikbal. This popular spot is open during these hours: 21:00-05:00, but closed on Monday, Tuesday, Wednesday, Thursday and Friday. For more details, visit their website at https://www.google.com/maps/place/EL+BAAZZZ/data=!4m7!3m6!1s0x12fd35000188fd8f:0xf2b2d638fec5302c!8m2!3d36.8463142!4d10.1749284!16s%2Fg%2F11vylg73r9!19sChIJj_2IAQA1_RIRLDDF_jjWsvI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>EL BAAZZZ is a discotheque located in Ariana, Tunisia. It is open from 9 PM to 5 AM on weekends (Saturday-Sunday). The discotheque has a rating of 5.0 out of 5 based on 1 review. The discotheque's exact coordinates are (36.846469739053, 10.174997461973).</t>
         </is>
       </c>
     </row>
@@ -2653,7 +2638,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated spot to satisfy your cravings, check out Damascino located at 38 Rue Mouawiya Ibn Abi Sofiene. This renowned Restaurant offers a range of cuisines, perfect for any food enthusiast. With a rating of 4.1, it's a must-visit spot for dining lovers. It's open during these hours: 11:00-00:00, but closed on undefined. To get there, use these GPS coordinates: 36.854167784031, 10.172850177704. For more details, visit their website at https://www.facebook.com/damascino.orientalfood/ or call them at 51 514 080.</t>
+          <t>Damascino is a oriental restaurant located in Ariana, Tunisia (36.854167784031, 10.172850177704). It has received 314 reviews and has a rating of 4.1 out of 5. The restaurant offers a wide variety of oriental dishes, including Syrian and Lebanese cuisine. It is known for its generous portions, high quality ingredients, and friendly service.</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2733,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated dining experience, check out HlWy conveniently located at V54W+2W5 HlWy. This restaurant is a must-visit spot with a rating of 4.3, and it offers a range of dishes to choose from.</t>
+          <t>HlWy is a restaurant located in Ariana, Tunisia. The restaurant has a rating of 4.3 out of 5 stars on Google Maps and has received 15 reviews. The restaurant's geolocation is (36.860202, 10.1905046).</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2840,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great place to eat, check out Damascino located at 38 Rue Mouawiya Ibn Abi Sofiene, Ariana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.854167784031, 10.172850177704. For more details, visit their website at https://www.facebook.com/damascino.orientalfood/ or call them at 51 514 080.</t>
+          <t>Damascino is a highly-rated restaurant in Ariana, Tunisia, known for its authentic Syrian and Lebanese cuisine. Situated at 38 Rue Mouawiya Ibn Abi Sofiene, it offers a warm and inviting ambiance with a focus on providing a memorable dining experience. Customers rave about the generous portions, fresh ingredients, and exceptional flavors, particularly highlighting the mouthwatering kebabs, salads, and hummus. With its convenient weekday hours of 11:00-00:00 and easy accessibility, Damascino is a popular destination for both locals and visitors seeking a taste of the Middle East in the heart of Ariana.</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2939,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out YoYo food located at 18 Rue des juges, Ariana 2091. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on lundi. To get there, use these GPS coordinates: 36.84638356902, 10.162835523333. For more details, visit their website at https://www.google.com/maps/place/YoYo+food/data=!4m7!3m6!1s0x12fd3370a00a1e35:0x23fe06c009acb91c!8m2!3d36.8461046!4d10.1633618!16s%2Fg%2F11j9n1wg5_!19sChIJNR4KoHAz_RIRHLmsCcAG_iM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>YoYo Food is a restaurant located in Ariana, Tunisia. It is a popular spot for locals and tourists alike, offering a variety of dishes including crepes, waffles, sandwiches, and salads. The restaurant is also known for its delicious ice cream and chocolate desserts. YoYo Food is situated in a convenient location, just a short walk from the city center. It is open 7 days a week, from 7am to midnight.</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3042,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a great Cafe et restaurant de grillades, check out JAGGER located at Av. de Hedi Nouira. This top-rated destination is a must-visit spot with a rating of 4.0. It's open during these hours: 07:30-01:00 and closed on . To get there, use these GPS coordinates: 36.855987542508, 10.159693693572. For more details, visit their website at or call them at 44 125 122.</t>
+          <t>JAGGER is a cafe and grill located in Ariana (Tunisia) serving breakfast, brunch, and lunch. It's known for its generous portions, friendly service, and a relaxed atmosphere. The cafe offers a variety of dishes, including pancakes, omelets, sandwiches, and salads. It's a popular spot for both locals and tourists, and is especially popular for its breakfast offerings.</t>
         </is>
       </c>
     </row>
@@ -3160,9 +3145,9 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Echemi Ennasr located at Echemi Ennasr, Residence Ettaoufik, 2 Av. Hedi Nouira, Ariana 2037. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 36.864739580827, 10.167664519529. For more details, call them at 25 567 389.</t>
+          <t>Echemi Ennasr, located in the bustling city of Ariana, offers a delectable dining experience in a friendly and welcoming atmosphere. This reputed restaurant has earned a remarkable 4.0 rating based on the reviews of 152 satisfied customers.
+One of Echemi Ennasr's notable features is its extensive menu, which includes a wide variety of dishes to cater to diverse tastes. It is particularly renowned for its sandwiches, pizzas, and escalopes. The restaurant takes pride in using only the finest ingredients, ensuring freshness and impeccable quality with every dish.
+Situated at coordinates (36.864739580827, 10.167664519529), Echemi Ennasr is conveniently located in the Residence Ettaoufik, 2 Av. Hedi Nouira, making it easily accessible to both locals and visitors. Whether you're seeking a quick bite or a leisurely dining experience, Echemi Ennasr is an excellent choice.</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3254,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in Ariana and up for some Italian food, La Tavolata is a top choice at Av. Hedi Nouira, V556+9JV. This 4-star restaurant is highly recommended with 140 reviews, and serves a range of food options. It's open from 12:00-23:00 during the week. You can call them at 71 829 202 or check out their website at https://m.facebook.com/latavolata.ristorante/ for more details.</t>
+          <t>La Tavolata is a restaurant located in Ariana, Tunisia. It offers a variety of dishes, including pizza, pasta, and seafood. The restaurant is open daily from 12:00pm to 11:00pm and is located at V556+9JV La Tavolata, Av. Hedi Nouira, Ariana.</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3361,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Mr meat located at 5 Av. de la liberte, Ariana. This top-rated destination is perfect for Restaurant americain lovers. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 36.849650818319, 10.174906593829. For more details, visit their website at https://m.facebook.com/profile.php%3Fid%3D100369788006725%26ref%3Dcontent_filter or call them at 22 563 680.</t>
+          <t>Mr Meat is an American restaurant located in Ariana, Tunisia. It offers a wide variety of dishes, including burgers, sandwiches, and salads. The restaurant is well-rated for its food and service, and it has a friendly and welcoming atmosphere. Mr Meat is open from 12:00 PM to 02:00 AM every day of the week, and it is located at 5 Av. de la liberte, Ariana.</t>
         </is>
       </c>
     </row>
@@ -3479,9 +3464,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Hamburgasm located at Av. Mustapha Hjeij, Ariana. 
-This top-rated destination is perfect for Restaurant de hamburgers lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-01:00, but closed on to get there, use these GPS coordinates: 36.858345081176, 10.185226830163. For more details, visit their website at https://www.instagram.com/hamburgasme_officiel_%3Figshid%3DMzMyNGUyNmU2YQ%3D%3D.</t>
+          <t>Hamburgasm, located in Ariana, Tunisia, is a popular destination for satisfying your burger cravings. With a rating of 4.0 based on 112 reviews, this restaurant boasts a delectable selection of burgers made from high-quality ingredients. Situated at Av. Mustapha Hjeij, Hamburgasm keeps its doors open from 12:00 pm to 01:00 am every day.</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3567,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated Restaurant thai destination, check out Restaurant Thailandais Thai House Ariana. With a rating of 4.5, it's a must-visit spot for {main_category} lovers. It's open during these hours: 12:00-22:00, but closed on {closed_on}. To get there, use these GPS coordinates: 36.8517738, 10.1809026. For more details, visit their website {website} or call them at 71 716 625.</t>
+          <t>Restaurant Thailandais Thai House Ariana is a highly-rated Thai restaurant located in Ariana, Tunisia. It offers a wide variety of Thai dishes, including curries, stir-fries, and noodle dishes. The restaurant is known for its fresh ingredients, authentic flavors, and friendly service. It is conveniently located near the Ariana Mall and is open daily except Mondays from 12:00 PM to 10:00 PM.</t>
         </is>
       </c>
     </row>
@@ -3687,9 +3670,8 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Pizza Town located at 19 Av. de la democratie, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-23:30, but closed on []. To get there, use these GPS coordinates: 36.846808892138, 10.174639714032. For more details, visit their website or call them at 71 231 222.</t>
+          <t>**Pizza Town**
+Nestled amidst the bustling streets of Ariana, Pizza Town offers a tantalizing culinary experience with its mouthwatering pizzas. Located conveniently at (36.846808892138, 10.174639714032), the restaurant is open daily from 11:30 am to 11:30 pm, except on public holidays. With its cozy ambiance and impeccable service, Pizza Town has earned a solid 4.0 rating among patrons.</t>
         </is>
       </c>
     </row>
@@ -3788,9 +3770,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Twins Garden located at Twins Garden, 36 Rue De L'ere Nouvelle 2, Cite Ennasr 2, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on . To get there, use these GPS coordinates: 36.861291689268, 10.154350395386. For more details, visit their link at https://www.google.com/maps/place/Twins+Garden/data=!4m7!3m6!1s0x12fd33bf8dd28193:0x2203dafa8779c1a6!8m2!3d36.8613315!4d10.1543418!16s%2Fg%2F11rfhdny2z!19sChIJk4HSjb8z_RIRpsF5h_raAyI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Twins Garden is a restaurant located in Ariana, Tunisia, known for its pizzas. It is open from 6:30 am to midnight, and offers a range of dishes at reasonable prices. The restaurant has received positive reviews for its friendly servers and cozy ambiance.</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3873,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a top-rated restaurant, check out Mustache located at 5 Rue Ahmed Tlili, Ariana 2091. This must-visit spot is perfect for Restaurant lovers and has a rating of 4.5. It's open from 11:30-00:00 and closed on . To get there, use these GPS coordinates: 36.844540707229, 10.174332601099. For more details, visit their website at  or call them at 55 553 007.</t>
+          <t>Mustache is a highly-rated restaurant located at 5 Rue Ahmed Tlili, Ariana 2091, Tunisia. It serves a variety of dishes including pizzas, burgers, sandwiches, and pastas. The restaurant is open from 11:30 AM to midnight, and is closed on Mondays. Mustache has received over 75 reviews on Google Maps, with an average rating of 4.5 out of 5. Reviewers have praised the restaurant's delicious food, friendly service, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -4000,7 +3980,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Piacere located at Piacere, Residence la princesse, 117 Av. Hedi Nouira, Ariana 2037. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on None. To get there, use these GPS coordinates: 36.867021097274, 10.170660992232. For more details, visit their website at https://www.facebook.com/piacere.tn/ or call them at 24 706 706.</t>
+          <t>Piacere is a charming restaurant nestled in the heart of Ariana. Boasting a 4.5-star rating, it offers a delicious and varied menu with options like pizza, pasta, and chicken. Customers rave about the warm and inviting ambiance, friendly staff, and reasonable prices. Located at the Residence la Princesse on Avenue Hedi Nouira, Piacere is open daily from noon to 11 pm, providing a delightful dining experience for both locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4083,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in ariana, Fairouz Lebanese Restaurant is a must-visit spot for Restaurant lovers. Located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili, Ariana, this top-rated destination offers a range of Restaurant options to choose from, earning a rating of 4.0. It's open during these hours: 12:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 36.8440227, 10.1715961.</t>
+          <t>Fairouz Lebanese Restaurant is a restaurant located in Ariana, Tunisia. It is highly rated for its delicious Lebanese cuisine, with many positive reviews praising its falafels, sandwiches, and overall quality. The restaurant is open from 12:00 to 23:00 every day except Sunday and is located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili.</t>
         </is>
       </c>
     </row>
@@ -4206,9 +4186,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a quick bite to eat, check out Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; located at V56J+35C Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. 
-This top-rated destination is perfect for fast food lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on Monday. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, call them at 21 210 859.</t>
+          <t>Chappati Elmileha &lt;&lt; le coin vert &gt;&gt; is a fast food restaurant located in the Ariana area of Tunisia. It is a popular spot for locals and tourists alike, and is known for its delicious chapatis (flatbreads) and other Middle Eastern cuisine. The restaurant is located at V56J+35C, Chappati Elmileha &lt;&lt; le coin vert &gt;&gt;, Ariana. It is open from 12:00 PM to 12:00 AM, closed on Mondays, and can be reached at 21 210 859.</t>
         </is>
       </c>
     </row>
@@ -4311,9 +4289,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Picanha Grill located at V578+CMM Picanha Grill, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website or call them at 70 031 607.</t>
+          <t>Picanha Grill, located in Ariana, offers a delightful dining experience with a focus on grilled steak. Its menu boasts a variety of steak cuts, accompanied by a selection of salads. The restaurant has received positive feedback from patrons, earning a 4.5 rating and featuring in the top 40% of restaurants in Ariana. It is situated at the precise location of 36.860202, 10.1905046, making it easily accessible for locals and travelers alike.</t>
         </is>
       </c>
     </row>
@@ -4420,9 +4396,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a family-friendly restaurant, check out Ninos located at V46W+2W4 Ninos, Ariana. 
-This top-rated destination is perfect for Restaurant familial lovers and offers a range of options to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-21:00, but closed on ['mardi']. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>Ninos is a family-friendly restaurant located in Ariana, Tunisia. It boasts a rating of 4.3, and is known for its extensive menu, reasonable prices, and children's play area. Situated on the coordinates (36.860202, 10.1905046), Ninos is a popular destination for parents and children alike, with over 58 reviews on Google Maps highlighting its family-oriented atmosphere.</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4503,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out InstaPasta located at 19 Rue Mouawiya Ibn Abi Sofiene, Ariana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.854588681299, 10.174919585779. For more details, visit their website at https://m.facebook.com/InstaPasta-1135239089984622/%3Ftsid%3D0.2812466684432393%26source%3Dresult or call them at 25 404 024.</t>
+          <t>InstaPasta is a popular restaurant located in Ariana,Tunisia. The restaurant has a rating of 4.5 and offers a wide variety of dishes at affordable prices. Some of the most popular dishes include sandwiches, pizzas, and pasta. The restaurant also offers a delivery service. InstaPasta is located on 19 Rue Mouawiya Ibn Abi Sofiene, and is open from 11:00am to 11:00pm.</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4610,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>Looking for a great place to eat in Ariana? Check out Rozana Kebab located at 7 Av. Jallouli Fares, Ariana 2037. This top-rated restaurant is perfect for lovers of Syrian cuisine and offers a range of dishes to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 36.860320017142, 10.16760101084. For more details, visit their website at http://www.facebook.com/rozana.kebab or call them at 27 822 122.</t>
+          <t>Rozana Kebab is a Syrian restaurant located in Ariana (36.860320017142, 10.16760101084). It is known for its chawarmas and hamburgers, and has received generally positive reviews (4.3 stars). It is open from 11:30am to midnight and is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -4739,9 +4713,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out La Coupole located at 92, La Coupole, 2 Av. Hedi Nouira, Ariana 2037. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Cafe a emporter, Creperie, Salon de the to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on none. To get there, use these GPS coordinates: 36.861964881822, 10.165000776837. For more details, visit their website or call them at 25 176 985.</t>
+          <t>La Coupole is a cafe located in Ariana, Tunisia. It offers a variety of services, including cafe au lait, cafe a emporter, crepes, and salon de the. The cafe is located at 2 Av. Hedi Nouira, Ariana 2037, and its coordinates are (36.861964881822, 10.165000776837).</t>
         </is>
       </c>
     </row>
@@ -4844,9 +4816,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Restaurant Chabrouch located at V578+CMJ Restaurant Chabrouch, Ariana. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.8638624, 10.1665063. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Chabrouch/data=!4m7!3m6!1s0x12e2cd7b35f917bb:0x2f6b567d22fb0c91!8m2!3d36.8635897!4d10.166653!16s%2Fg%2F11gntvgfqz!19sChIJuxf5NXvN4hIRkQz7In1Way8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 957 505.</t>
+          <t>**Restaurant Chabrouch** is a highly-rated restaurant boasting 36 reviews and a rating of 4.2. It is located in ariana, making it convenient for locals and tourists alike. The restaurant's weekday timing is from 11:00-23:00, and it is known for its cuisine tunisienne. With its convenient location, excellent reviews, and delectable cuisine, Restaurant Chabrouch is a must-visit for anyone seeking an authentic Tunisian dining experience.</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4919,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Rosmarino located at 6 Rue Medinat El Oubeila, Ariana 2080. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.886556212272, 10.188784594735. For more details, visit their website at https://www.google.com/maps/place/Rosmarino/data=!4m7!3m6!1s0x12e2cdcdd75518ad:0x2ba54aa045cb78db!8m2!3d36.8659967!4d10.1618932!16s%2Fg%2F11llyk7t37!19sChIJrRhV183N4hIR23jLRaBKpSs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 091 909.</t>
+          <t>Rosmarino is a popular pizzeria located in Ariana, renowned for its authentic Italian cuisine. It offers a wide selection of pizzas and other dishes, ensuring a satisfying dining experience for all. Conveniently situated at (36.886556212272, 10.188784594735), Rosmarino provides easy accessibility and its inviting ambiance makes it an ideal spot for a casual meal or a special occasion.</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5022,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Chez Mamino located at V53J+253 Chez Mamino, Rue Kehna, Ariana. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on none. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at https://www.google.com/maps/place/Chez+Mamino/data=!4m7!3m6!1s0x12fd34ae39feebbb:0xa6500470fcb81653!8m2!3d36.8525182!4d10.1804334!16s%2Fg%2F11c706p0n3!19sChIJu-v-Oa40_RIRUxa4_HAEUKY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 444 113.</t>
+          <t>Chez Mamino is a highly-rated restaurant located in Ariana at the coordinates (36.860202, 10.1905046) with a 4.4 rating and 18 reviews. It operates from 08:00 to 22:00 and specializes in providing a dining experience, as suggested by its main and only category being "Restaurant".</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5125,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a great Restaurant, check out UMAMI located at Residence Nour El, Residence Houda, 5 Av. Hedi Nouira, Ariana 2001. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.86778670031, 10.171402120111. For more details, visit their website or call them at 53 766 145.</t>
+          <t>UMAMI is a restaurant located in Ariana, Tunisia, offering a variety of dishes. The restaurant is open from 12:00 pm to 00:00 am during the week, and is closed on Sundays. The restaurant has a rating of 4.0 out of 5 stars, and offers a variety of categories such as Restaurant. The restaurant is located at UMAMI, Residence Nour El, Residence Houda, 5 Av. Hedi Nouira, Ariana 2001, and can be contacted at 53 766 145.</t>
         </is>
       </c>
     </row>
@@ -5258,9 +5228,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out mT`m SlyH Restaurant Salih located at 31 Av. Habib Bourguiba, Ariana 2080. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:30-22:00. To get there, use these GPS coordinates: 36.889676082362, 10.175152602687. For more details, visit their website at https://www.instagram.com/restosalih/.</t>
+          <t>mT`m SlyH Restaurant Salih is a highly-rated Tunisian restaurant located on Habib Bourguiba Avenue in Ariana. It offers a variety of traditional Tunisian dishes and has received positive reviews for its delicious food, friendly service, and convenient location. The restaurant is open daily from 7:30 AM to 10:00 PM and offers both indoor and outdoor seating.</t>
         </is>
       </c>
     </row>
@@ -5363,11 +5331,8 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a top-rated Restaurant, check out L'authentique located at Rue Aziza Othmena, Ariana. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. 
-To get there, use these GPS coordinates: 36.860202, 10.1905046. 
-For more details, visit their website at or call them at 25 642 779.</t>
+          <t>Located in the city of Ariana (Tunisia), L'authentique is a restaurant that offers a 24/7 service, except on Sundays. 
+With a 5.0-star rating based on 2 reviews, it's a highly rated spot among customers.</t>
         </is>
       </c>
     </row>
@@ -5470,9 +5435,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Fairouz Lebanese Restaurant located at R5VC+JHG Fairouz Lebanese Restaurant, Rue Ahmed Tlili. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 36.8440227, 10.1715961. For more details, visit their website at  or call them at 71 238 590.</t>
+          <t>Fairouz Lebanese Restaurant is a top-rated dining destination in Ariana, Tunisia, renowned for its authentic Lebanese cuisine. Situated at coordinates (36.8440227, 10.1715961), the restaurant offers a delightful fusion of Lebanese flavors. With 66 positive reviews, Fairouz Lebanese Restaurant has earned a 4.0 rating for its delectable dishes, including falafel and sandwiches, at affordable prices. Open daily from 12:00 PM to 11:00 PM, except on Sundays, the restaurant welcomes diners with its warm ambiance and friendly service.</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5534,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out street food rades located at 10 Avenue Habib Bourguiba, Ariana. This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.857520909269, 10.188903199348. For more details, visit their website at or call them at 21 082 834.</t>
+          <t>**Street food rades** is a highly-rated grill restaurant located in Ariana, Tunisia. Known for its delicious food and excellent service, it's a popular spot for locals and tourists alike. The restaurant offers a variety of dishes grilled to perfection, with a focus on traditional Tunisian flavors. It's conveniently located on 10 Avenue Habib Bourguiba, making it easy to find and enjoy.</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5629,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a Service de transport, check out Terminus Ariana located at V55W+VX9 Terminus Ariana, Ariana. This top-rated destination offers a range of Service de transport to choose from. With a rating of 2.9, it's a must-visit spot. It's open during {workday_timing}, but closed on {closed_on}. To get there, use these GPS coordinates: (36.860202, 10.1905046). For more details, visit their website or call them at {phone}.</t>
+          <t>Terminus Ariana is a transportation service located within the Ariana district. It offers a variety of transportation services, with a main focus on metro services. The terminus is situated at the coordinates (36.860202, 10.1905046), making it easily accessible to those in the area. With 96 reviews and a rating of 2.9, Terminus Ariana is a popular choice for transportation services in Ariana.</t>
         </is>
       </c>
     </row>
@@ -5761,9 +5724,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a place to enjoy some time at, check out Ariana located at Ariana. 
-This popular destination is great for Station de metro lovers and offers a range of Station de metro to choose from. 
-With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at https://www.google.com/maps/place/Ariana/data=!4m7!3m6!1s0x12e2cb34bd64ca87:0xcba9f5235ee1ba8b!8m2!3d36.8596907!4d10.1975119!16s%2Fg%2F1tgmmm03!19sChIJh8pkvTTL4hIRi7rhXiP1qcs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Ariana metro station is located in Ariana, Tunisia. It is part of the Ariana metro line and is close to the Ariana mosque.</t>
         </is>
       </c>
     </row>
@@ -5858,9 +5819,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for an Arret de bus, check out Ennasr 2 located at Ennasr 2, Ariana. 
-This top-rated destination has a rating of 4.0 and is a must-visit spot. 
-To get there, use these GPS coordinates: 36.86474, 10.15374.</t>
+          <t>**Ennasr 2** is a bus stop located in Ariana, Tunisia at the coordinates of 36.86474, 10.15374. Ennasr 2 has received an overall rating of 4.0 from 26 reviews.</t>
         </is>
       </c>
     </row>
@@ -5955,9 +5914,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a reliable transportation service, consider station metro l'independance located at V53W+M8X station metro l'independance, Ariana. 
-This top-rated destination is perfect for those seeking convenient transportation solutions. With a rating of 3.8, it's a must-visit spot. It's open during these hours: not specified, but closed on not specified. 
-For more details, visit their website at not specified or call them at not specified.</t>
+          <t>The metro station l'independance, located at the coordinates (36.854525, 10.1956925) in Ariana, offers transportation services. It has a rating of 3.8 based on 12 reviews and has a featured image available for viewing.</t>
         </is>
       </c>
     </row>
@@ -6048,9 +6005,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a bus stop, check out 6B Bus Stop located at 6B Bus Stop, Ariana. 
-This top-rated destination is perfect for bus lovers and offers a range of options to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 21.257624, 72.724922.</t>
+          <t>The 6B Bus Stop, located in Ariana, offers a convenient and accessible transportation hub for commuters. Situated at coordinates (21.257624, 72.724922), the bus stop caters to the transportation needs of the local community and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6100,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Terminus Taxi Collectif Ariana Raoued located at Terminus Taxi Collectif Ariana Raoued, Ariana. This top-rated destination is perfect for Arret de bus lovers. With a rating of 2.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.94883, 10.1846799. For more details, visit their link at https://www.google.com/maps/place/Terminus+Taxi+Collectif+Ariana+Raoued/data=!4m7!3m6!1s0x12e2cb4b4dbc6e25:0xe57b04e030b64b72!8m2!3d36.8594846!4d10.187904!16s%2Fg%2F11b6b38g1y!19sChIJJW68TUvL4hIRcku2MOAEe-U?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Terminus Taxi Collectif Ariana Raoued is a bus stop located in Ariana, Tunisia. It offers transportation services to and from Ariana and Raoued, with convenient access for local residents and travelers alike. Its precise geolocation is at longitude 10.1846799 and latitude 36.94883, making it easily accessible within the Ariana region.</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6195,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in Ariana and searching for a place to drop anchor, check out 51A. This highly-rated place is located at 51A, Ariana. With a rating of 2.5, it's an essential spot to visit. For more details, visit the place or call them at the provided phone number.</t>
+          <t>The bus stop 51A is located in Ariana, Tunisia, at the coordinates (36.860202, 10.1905046). It has a rating of 2.5 based on 8 reviews.</t>
         </is>
       </c>
     </row>
@@ -6335,9 +6290,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Terminus Taxi Collectif (514, 515) located at V55W+MQ7 Terminus Taxi Collectif (514, 515), Av. Taieb Mhiri, Ariana. 
-This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.858072087073, 10.191454200752.</t>
+          <t>This taxi terminus (514, 515) is located in Ariana, a city in Tunisia. It is located at the coordinates (36.858072087073, 10.191454200752).</t>
         </is>
       </c>
     </row>
@@ -6432,9 +6385,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a place to catch your bus, check out Terminus 635 located at Terminus 635, Ariana. 
-This top-rated destination is perfect for public transport lovers and offers a range of bus routes to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046. For more details, visit their website at https://www.google.com/maps/place/Terminus+635/data=!4m7!3m6!1s0x12fd34b53f9a1e25:0xf3c43ad7c1ad925d!8m2!3d36.8577551!4d10.1912879!16s%2Fg%2F11b6c5w4y_!19sChIJJR6aP7U0_RIRXZKtwdc6xPM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Terminus 635 is a bus stop located in Ariana, Tunisia. It has a rating of 3.3 out of 5 stars on Google Maps, based on 7 reviews. The bus stop is located at coordinates (36.860202, 10.1905046).</t>
         </is>
       </c>
     </row>
@@ -6529,9 +6480,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Ennasr 1 Bus Stop located at Ennasr 1 Bus Stop, Av. de l'Ere Nouvelle, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.858865848599, 10.165349874026. For more details, visit their website at https://www.google.com/maps/place/Ennasr+1+Bus+Stop/data=!4m7!3m6!1s0x12fd33548ba7b6f5:0xb70cc2833a4a02f7!8m2!3d36.8586584!4d10.1659396!16s%2Fg%2F1ptydwtf3!19sChIJ9bani1Qz_RIR9wJKOoPCDLc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Located in Ariana, the Ennasr 1 Bus Stop is a highly-rated transportation hub with a 4.8-star rating. It's conveniently situated on Av. de l'Ere Nouvelle, making it easily accessible for commuters.</t>
         </is>
       </c>
     </row>
@@ -6626,7 +6575,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a convenient way to get around, head to El Menzah 8 Bus Stop located at Av. Othman Ibn Affane, Ariana. This top-rated bus stop is perfect for catching a ride to your destination. With a rating of 4.4, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 36.8525273, 10.1709053.</t>
+          <t>El Menzah 8 Bus Stop is a highly rated bus stop located at Av. Othman Ibn Affane in Ariana, Tunisia. It has received an average rating of 4.4 out of 5 based on 5 reviews, indicating customer satisfaction with the services provided.</t>
         </is>
       </c>
     </row>
@@ -6721,10 +6670,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Safsaf located at Safsaf, Av. Taieb Mhiri, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.858072087073, 10.191454200752. For more details, visit their website 
-at https://www.google.com/maps/place/Safsaf/data=!4m7!3m6!1s0x12fd34b5387f362f:0x4e79b082c64d3d2d!8m2!3d36.8581025!4d10.1913291!16s%2Fg%2F11b6b9d312!19sChIJLzZ_OLU0_RIRLT1NxoKweU4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Safsaf is a bus stop in Ariana, Tunisia, located at (36.858072087073, 10.191454200752).</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6765,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a bus stop, check out Carnoy Bus Stop located at Ariana. This highly rated destination is perfect for bus stop users and offers a range of services. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8445284, 10.1745315.</t>
+          <t>The Carnoy Bus Stop is located in Ariana, Tunisia, at the coordinates (36.8445284, 10.1745315). It offers public transportation services and is easily accessible by bus. The stop boasts a rating of 4.0 from 4 reviews and is categorized as an "Arret de bus". Currently, there is no available information regarding its website, owner, workday timing, or hours of operation.</t>
         </is>
       </c>
     </row>
@@ -6914,7 +6860,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a place to rest your feet, check out El Menzah 7 (47, 5C, 5D) located at Rue Mouawiya Ibn Abi Sofiene, Ariana. This well-rated destination is perfect for bus stop lovers and has a rating of 3.3, making it a must-visit spot. To get there, use these GPS coordinates: 36.855111625206, 10.176651154696. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+7+%2847,+5C,+5D%29/data=!4m7!3m6!1s0x12fd334fef44c381:0x1af5d7ece094659e!8m2!3d36.8525461!4d10.1595425!16s%2Fg%2F1t_gbcq6!19sChIJgcNE708z_RIRnmWU4OzX9Ro?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Menzah 7 (47, 5C, 5D) is a bus stop located in Ariana, Tunisia, at the coordinates (36.855111625206, 10.176651154696). It offers a convenient transportation option for residents and visitors of the area.</t>
         </is>
       </c>
     </row>
@@ -7009,9 +6955,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in Ariana and looking for a reliable taxi service, check out Transport non urbain located at V55Q+P6J Transport non urbain. 
-This destination is perfect for those seeking transportation services and offers a range of options to choose from. 
-With a rating of 2.5, it's a notable spot in the area. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>Transport non urbain is a taxi station located in Ariana, Tunisia at the coordinates (36.860202, 10.1905046). It has received a 2.5-star rating based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -7106,9 +7050,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a place to wait for a bus, check out Avenue de l'Ere Nouvelle 2 Bus Stop located at Avenue de l'Ere Nouvelle 2 Bus Stop, Ariana. 
-This top-rated destination is perfect for bus stop lovers and offers a range of bus stop services to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.859426502007, 10.152863817965.</t>
+          <t>This bus stop, named "Avenue de l'Ere Nouvelle 2 Bus Stop", is located in Ariana, Tunisia. It is conveniently situated in the Avenue de l'Ere Nouvelle, making it easily accessible. According to the reviews, this bus stop has received a rating of 4.7, highlighting its overall quality and service. The presence of three reviews indicates that it is a frequently used stop. The bus stop's exact location is at latitude 36.859426502007 and longitude 10.152863817965, providing precise directions for travelers.</t>
         </is>
       </c>
     </row>
@@ -7203,8 +7145,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out El Menzah 7 (47, 5C, 5D). This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: nan. To get there, use these GPS coordinates: 
-36.8521303, 10.158535.</t>
+          <t>El Menzah 7 is an Ariana bus stop located at coordinates (36.8521303, 10.158535) with 3 Google reviews and a rating of 3.7 out of 5.</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7236,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>Located in Ariana, Terminus 6P is a highly-rated bus stop with a 3.3 rating. It's a convenient destination for anyone in need of public transportation services. To get to Terminus 6P, use the GPS coordinates (36.860202, 10.1905046) or visit their website for more information.</t>
+          <t>In the city of Ariana, Terminus 6P is a bus stop situated at the coordinates (36.860202, 10.1905046). With a rating of 3.3, it has garnered mixed reviews from users.</t>
         </is>
       </c>
     </row>
@@ -7390,8 +7331,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for a bus stop, check out El Menzah 6 Bus Stop located at Rue Mouawiya Ibn Abi Sofiene. 
-This top-rated destination is perfect for bus lovers and has a rating of 4.0. It's open during these hours: not specified, but closed on not mentioned. To get there, use these GPS coordinates: 36.85539711586, 10.176995196462. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+6+Bus+Stop/data=!4m7!3m6!1s0x12fd3350ee582e01:0x4decc31e05921e90!8m2!3d36.8525139!4d10.162788!16s%2Fg%2F1ptwg6hgz!19sChIJAS5Y7lAz_RIRkB6SBR7D7E0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>El Menzah 6 Bus Stop is located in Ariana, Tunisia, at the coordinates (36.85539711586, 10.176995196462). It has a 4.0 rating based on 3 reviews. The bus stop is located in El Menzah 6, on Rue Mouawiya Ibn Abi Sofiene.</t>
         </is>
       </c>
     </row>
@@ -7486,9 +7426,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out El Menzah 8 (5C, 5D) located at Rue Doha, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.855591995109, 10.170164364469. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+8+%285C,+5D%29/data=!4m7!3m6!1s0x12fd33560d167feb:0x649352629c2d7763!8m2!3d36.8548791!4d10.1690215!16s%2Fg%2F1tp6lq65!19sChIJ638WDVYz_RIRY3ctnGJSk2Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>El Menzah 8 (5C, 5D) is a bus stop located in the Ariana district. It offers public transportation services to the local community, making it a convenient option for commuters and travelers alike. The bus stop is situated at the intersection of Rue Doha and El Menzah 8, providing easy access to nearby businesses, residential areas, and other transportation hubs.</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7521,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out mHT@ lHflt b'ryn@ Terminus located at V56X+359 mHT@ lHflt b'ryn@ Terminus, Ariana. This top-rated destination is perfect for Service de transport lovers and offers a range of Service de transport to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.860202, 10.1905046.</t>
+          <t>mHT@ lHflt b'ryn@ Terminus is a transportation service based in Ariana, Tunisia. The business offers a variety of services to meet your transportation needs, whether you need a private car, a bus, or a taxi. With a 4.0 rating based on 2 reviews and located at V56X+359 Ariana, mHT@ lHflt b'ryn@ Terminus is a reputable provider of transportation services in Ariana.</t>
         </is>
       </c>
     </row>
@@ -7678,8 +7616,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out 5D TCV(Tunis) located at Rue Hassen Ibn Thabet, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.850754470646, 10.159461370939. For more details, visit their website at https://www.google.com/maps/place/5D+TCV%28Tunis%29/data=!4m7!3m6!1s0x12fd334546e75555:0x522978a301d58fc9!8m2!3d36.8497624!4d10.1583463!16s%2Fg%2F1td0jxy9!19sChIJVVXnRkUz_RIRyY_VAaN4KVI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>5D TCV(Tunis) is a bus stop located in Ariana, Tunisia. It offers a convenient spot for travelers to board or disembark buses for their transportation needs. The bus stop is situated on Rue Hassen Ibn Thabet, providing easy access to the surrounding areas. With its prime location and reliable transportation options, 5D TCV(Tunis) plays a crucial role in the public transportation network of Ariana.</t>
         </is>
       </c>
     </row>
@@ -7774,7 +7711,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Othmane Ibn Affane located at Othmane Ibn Affane, Ariana. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.839720021055, 10.103797096582.</t>
+          <t>The Othmane Ibn Affane is a bus stop located at the following address : Othmane Ibn Affane, Ariana. The bus stop is located at the coordinates (36.839720021055, 10.103797096582).</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7806,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Othmane Ibn Affane located at Othmane Ibn Affane, Av. Othman Ibn Affane. This top-rated destination is perfect for Arret de bus lovers. With a rating of 4.0, it's a must-visit spot. It's open during regular hours, but closed on If you need more details, visit the link https://www.google.com/maps/place/Othmane+Ibn+Affane/data=!4m7!3m6!1s0x12fd335ec8d31f25:0x55a84ec672434c39!8m2!3d36.8445552!4d10.166468!16s%2Fg%2F1pv043w2_!19sChIJJR_TyF4z_RIROUxDcsZOqFU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Othmane Ibn Affane is a bus stop located in Ariana, Tunisia, at coordinates (36.8445844, 10.1666019). This bus stop offers transportation services to the local community.</t>
         </is>
       </c>
     </row>
@@ -7964,7 +7901,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in ariana and seeking a bus stop, consider Le College situated on Rue Mustapha Abdessalem, Ariana. This well-regarded location has a rating of 3.0, making it a must-visit destination. The GPS coordinates for your convenience are: (36.851716019794, 10.173862666252). For further information, explore their website at https://www.google.com/maps/place/Le+Coll%C3%A8ge/data=!4m7!3m6!1s0x12fd34a8efa705ff:0x35ee73ba8086c92d!8m2!3d36.8516468!4d10.1739943!16s%2Fg%2F1ptw2rcg2!19sChIJ_wWn76g0_RIRLcmGgLpz7jU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le College is a bus stop located in Ariana, Tunisia. It offers a convenient and accessible spot for commuters to catch public transportation. The bus stop is situated at the coordinates (36.851716019794, 10.173862666252) and is easily accessible by foot, bike, or car.</t>
         </is>
       </c>
     </row>
@@ -8059,8 +7996,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out El Menzah 6 (5C, 5D) located at Rue Mouawiya Ibn Abi Sofiene, Ariana. 
-This top-rated destination is perfect for Arret de bus lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/El+Menzah+6+%285C,+5D%29/data=!4m7!3m6!1s0x12fd3350cb75a447:0x14392aaf8bb403d7!8m2!3d36.8521684!4d10.1645556!16s%2Fg%2F1tgccmr6!19sChIJR6R1y1Az_RIR1wO0i68qORQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>El Menzah 6 is a bus stop located at El Menzah 6 (5C, 5D), Rue Mouawiya Ibn Abi Sofiene, Ariana. It is rated 5.0 and has 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8087,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Ennahli located at Ennahli, shr` jwd@ lHy@. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8894577, 10.1601223.</t>
+          <t>Ennahli is a bus stop located in ariana, Tunisia at the coordinates (36.8894577, 10.1601223). This place has a rating of 4.0 out of 5 based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -8242,7 +8178,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in Ariana and need to travel, check out 6B Bus Stop located at Ariana. This top-rated destination is perfect for public transport riders and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 21.257624, 72.724922. For more details, visit their website at https://www.google.com/maps/place/6B+Bus+Stop/data=!4m7!3m6!1s0x12fd34ad03248f8d:0xc447072e86d3ed6f!8m2!3d36.8579309!4d10.1789403!16s%2Fg%2F11gz8dbp7!19sChIJjY8kA600_RIRb-3Thi4HR8Q?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The "6B Bus Stop" is located in Ariana, at the coordinates (21.257624, 72.724922). It is a bus stop that serves the 6B bus line. The bus stop is located on a busy street and is easily accessible by foot or by public transportation.</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8277,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in ariana and looking for something fun to do, check out Station Palestine (direction : Ariana) located at 95 Rue de La Palestine, Jeanne d'Arc 1002. This top-rated destination is perfect for Compagnie de transport ferroviaire lovers. With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.818970705764, 10.179573469879. For more details, visit their website at https://www.transtu.tn/fr/.</t>
+          <t>The Station Palestine is a train station located in Ariana, Tunisia. It offers rail services to Ariana and its surrounding areas. Its geographical coordinates are (36.818970705764, 10.179573469879).</t>
         </is>
       </c>
     </row>
